--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3C6D4-651C-4CDD-BD8F-822A205D9271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274321FC-0683-4842-A2A8-9C174A5211B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="CoVaR" sheetId="1" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zarathos\Desktop\SystemicRisk-master-c\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274321FC-0683-4842-A2A8-9C174A5211B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048DCB-D382-48C1-AE7B-A08729E503CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="CoVaR" sheetId="1" r:id="rId1"/>
-    <sheet name="Delta CoVaR" sheetId="2" r:id="rId2"/>
-    <sheet name="MES" sheetId="3" r:id="rId3"/>
-    <sheet name="SRISK" sheetId="4" r:id="rId4"/>
-    <sheet name="Averages" sheetId="5" r:id="rId5"/>
+    <sheet name="Beta" sheetId="6" r:id="rId1"/>
+    <sheet name="VaR" sheetId="7" r:id="rId2"/>
+    <sheet name="ES" sheetId="8" r:id="rId3"/>
+    <sheet name="CoVaR" sheetId="1" r:id="rId4"/>
+    <sheet name="Delta CoVaR" sheetId="2" r:id="rId5"/>
+    <sheet name="MES" sheetId="3" r:id="rId6"/>
+    <sheet name="SRISK" sheetId="4" r:id="rId7"/>
+    <sheet name="Averages" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -379,18 +382,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B70403-32DB-45D2-B832-B8B2F8A0BC39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A92F4-5EC8-4466-ABB0-D5CFF733C8E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF5D4A-DC17-46A6-B811-E8DAD1E64E52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8ADCDB-D3A8-49BA-AA3A-97D28D836923}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C042B1CD-956F-4D61-B9DC-EFC93A3AB45B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -402,7 +441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D7AAC3-3EED-445C-8511-3C3D874C46DB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -414,7 +453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAF8DA-77B7-4FFA-B50C-7AB4375DF699}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -426,7 +465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7618CF-3BA8-4F1B-9257-4EC55BEA3C30}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A048DCB-D382-48C1-AE7B-A08729E503CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289F32C-FECE-4295-83F9-9702DE255E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2595" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0289F32C-FECE-4295-83F9-9702DE255E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C2E83-2F28-4527-8B07-4BEB38E53F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0C2E83-2F28-4527-8B07-4BEB38E53F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52F407-8F86-4A4F-A4DF-AF1342FF9244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1380" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52F407-8F86-4A4F-A4DF-AF1342FF9244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825CBFE-C042-4A3D-B18A-32AFF359207A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1725" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7825CBFE-C042-4A3D-B18A-32AFF359207A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CDA672-4D26-4A45-9E0D-E7FF68355D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CDA672-4D26-4A45-9E0D-E7FF68355D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF1F2C-F423-4339-8CE6-02B34B523F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2760" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="CoVaR" sheetId="1" r:id="rId4"/>
     <sheet name="Delta CoVaR" sheetId="2" r:id="rId5"/>
     <sheet name="MES" sheetId="3" r:id="rId6"/>
-    <sheet name="SRISK" sheetId="4" r:id="rId7"/>
-    <sheet name="Averages" sheetId="5" r:id="rId8"/>
+    <sheet name="SES" sheetId="9" r:id="rId7"/>
+    <sheet name="SRISK" sheetId="4" r:id="rId8"/>
+    <sheet name="Averages" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -454,6 +455,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D09226B-A83C-43FE-88F5-C71BB972B625}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAF8DA-77B7-4FFA-B50C-7AB4375DF699}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -465,7 +478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7618CF-3BA8-4F1B-9257-4EC55BEA3C30}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFF1F2C-F423-4339-8CE6-02B34B523F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D33B87-CD1D-4A44-B642-D9B562C97719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D33B87-CD1D-4A44-B642-D9B562C97719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276E6F0-008D-43FA-918D-D8789FE686F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276E6F0-008D-43FA-918D-D8789FE686F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F1BAA-9161-497B-B801-4494D3D3E303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F1BAA-9161-497B-B801-4494D3D3E303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B5B96-1E57-4313-8062-2C252F51F753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B5B96-1E57-4313-8062-2C252F51F753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610305E2-151B-46A9-A1AA-149A8C6EB24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610305E2-151B-46A9-A1AA-149A8C6EB24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8DBC3-8157-4A5B-AD77-D0778734C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D8DBC3-8157-4A5B-AD77-D0778734C2BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F42268C-FBFE-407C-A4CD-298DE96C9199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F42268C-FBFE-407C-A4CD-298DE96C9199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A318687-B8D9-44CE-AB8C-113CFF8737C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
@@ -16,12 +16,13 @@
     <sheet name="Beta" sheetId="6" r:id="rId1"/>
     <sheet name="VaR" sheetId="7" r:id="rId2"/>
     <sheet name="ES" sheetId="8" r:id="rId3"/>
-    <sheet name="CoVaR" sheetId="1" r:id="rId4"/>
-    <sheet name="Delta CoVaR" sheetId="2" r:id="rId5"/>
-    <sheet name="MES" sheetId="3" r:id="rId6"/>
-    <sheet name="SES" sheetId="9" r:id="rId7"/>
-    <sheet name="SRISK" sheetId="4" r:id="rId8"/>
-    <sheet name="Averages" sheetId="5" r:id="rId9"/>
+    <sheet name="LTD" sheetId="10" r:id="rId4"/>
+    <sheet name="CoVaR" sheetId="1" r:id="rId5"/>
+    <sheet name="Delta CoVaR" sheetId="2" r:id="rId6"/>
+    <sheet name="MES" sheetId="3" r:id="rId7"/>
+    <sheet name="SES" sheetId="9" r:id="rId8"/>
+    <sheet name="SRISK" sheetId="4" r:id="rId9"/>
+    <sheet name="Averages" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -394,6 +395,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7618CF-3BA8-4F1B-9257-4EC55BEA3C30}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271A92F4-5EC8-4466-ABB0-D5CFF733C8E1}">
   <dimension ref="A1"/>
@@ -419,6 +432,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77683A5-DF31-4041-928E-42B88C4E3D69}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8ADCDB-D3A8-49BA-AA3A-97D28D836923}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -430,7 +455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C042B1CD-956F-4D61-B9DC-EFC93A3AB45B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -442,7 +467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D7AAC3-3EED-445C-8511-3C3D874C46DB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -454,7 +479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D09226B-A83C-43FE-88F5-C71BB972B625}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -466,7 +491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAF8DA-77B7-4FFA-B50C-7AB4375DF699}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -476,16 +501,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7618CF-3BA8-4F1B-9257-4EC55BEA3C30}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A318687-B8D9-44CE-AB8C-113CFF8737C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9571AD-39DC-434F-824F-CB3E19D24074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9571AD-39DC-434F-824F-CB3E19D24074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EEE530-1D01-4EA3-A79C-E59573B93F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>
     <sheet name="VaR" sheetId="7" r:id="rId2"/>
     <sheet name="ES" sheetId="8" r:id="rId3"/>
-    <sheet name="LTD" sheetId="10" r:id="rId4"/>
+    <sheet name="CAViaR" sheetId="11" r:id="rId4"/>
     <sheet name="CoVaR" sheetId="1" r:id="rId5"/>
     <sheet name="Delta CoVaR" sheetId="2" r:id="rId6"/>
     <sheet name="MES" sheetId="3" r:id="rId7"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77683A5-DF31-4041-928E-42B88C4E3D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE0F5F-76B3-411B-A9F2-B91C95CB3B51}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EEE530-1D01-4EA3-A79C-E59573B93F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48453D-511E-4F51-AA5A-43848501ED99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48453D-511E-4F51-AA5A-43848501ED99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21972982-DC75-4ABB-BC68-BF0CE7801917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21972982-DC75-4ABB-BC68-BF0CE7801917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073A4A0-7B90-4289-96BA-5EEE593B3F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta" sheetId="6" r:id="rId1"/>

--- a/Templates/TemplateCrossSectional.xlsx
+++ b/Templates/TemplateCrossSectional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073A4A0-7B90-4289-96BA-5EEE593B3F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF3D4CE-9C3E-4E06-81F4-7E76B92DB9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
